--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pomc-Mc1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pomc-Mc1r.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.171359</v>
+        <v>2.862146333333333</v>
       </c>
       <c r="H2">
-        <v>3.514077</v>
+        <v>8.586439</v>
       </c>
       <c r="I2">
-        <v>0.9475013771363814</v>
+        <v>0.9778268096017091</v>
       </c>
       <c r="J2">
-        <v>0.9475013771363814</v>
+        <v>0.9778268096017091</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3839713333333334</v>
+        <v>0.7564453333333333</v>
       </c>
       <c r="N2">
-        <v>1.151914</v>
+        <v>2.269336</v>
       </c>
       <c r="O2">
-        <v>0.1190905804207292</v>
+        <v>0.2228868660598179</v>
       </c>
       <c r="P2">
-        <v>0.1190905804207292</v>
+        <v>0.2228868660598179</v>
       </c>
       <c r="Q2">
-        <v>0.4497682770420001</v>
+        <v>2.165057237167111</v>
       </c>
       <c r="R2">
-        <v>4.047914493378</v>
+        <v>19.485515134504</v>
       </c>
       <c r="S2">
-        <v>0.1128384889526119</v>
+        <v>0.2179447531413952</v>
       </c>
       <c r="T2">
-        <v>0.1128384889526119</v>
+        <v>0.2179447531413952</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.171359</v>
+        <v>2.862146333333333</v>
       </c>
       <c r="H3">
-        <v>3.514077</v>
+        <v>8.586439</v>
       </c>
       <c r="I3">
-        <v>0.9475013771363814</v>
+        <v>0.9778268096017091</v>
       </c>
       <c r="J3">
-        <v>0.9475013771363814</v>
+        <v>0.9778268096017091</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>5.342209</v>
       </c>
       <c r="O3">
-        <v>0.5523040526800121</v>
+        <v>0.5246945458259835</v>
       </c>
       <c r="P3">
-        <v>0.5523040526800121</v>
+        <v>0.5246945458259834</v>
       </c>
       <c r="Q3">
-        <v>2.085881530677</v>
+        <v>5.096727967083445</v>
       </c>
       <c r="R3">
-        <v>18.772933776093</v>
+        <v>45.870551703751</v>
       </c>
       <c r="S3">
-        <v>0.523308850512316</v>
+        <v>0.5130603937604392</v>
       </c>
       <c r="T3">
-        <v>0.523308850512316</v>
+        <v>0.5130603937604391</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.171359</v>
+        <v>2.862146333333333</v>
       </c>
       <c r="H4">
-        <v>3.514077</v>
+        <v>8.586439</v>
       </c>
       <c r="I4">
-        <v>0.9475013771363814</v>
+        <v>0.9778268096017091</v>
       </c>
       <c r="J4">
-        <v>0.9475013771363814</v>
+        <v>0.9778268096017091</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6969213333333334</v>
+        <v>0.6826836666666667</v>
       </c>
       <c r="N4">
-        <v>2.090764</v>
+        <v>2.048051</v>
       </c>
       <c r="O4">
-        <v>0.2161535481665867</v>
+        <v>0.2011529667359422</v>
       </c>
       <c r="P4">
-        <v>0.2161535481665867</v>
+        <v>0.2011529667359422</v>
       </c>
       <c r="Q4">
-        <v>0.8163450760920001</v>
+        <v>1.953940553376556</v>
       </c>
       <c r="R4">
-        <v>7.347105684828</v>
+        <v>17.585464980389</v>
       </c>
       <c r="S4">
-        <v>0.204805784560756</v>
+        <v>0.1966927637053251</v>
       </c>
       <c r="T4">
-        <v>0.204805784560756</v>
+        <v>0.1966927637053251</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.171359</v>
+        <v>2.862146333333333</v>
       </c>
       <c r="H5">
-        <v>3.514077</v>
+        <v>8.586439</v>
       </c>
       <c r="I5">
-        <v>0.9475013771363814</v>
+        <v>0.9778268096017091</v>
       </c>
       <c r="J5">
-        <v>0.9475013771363814</v>
+        <v>0.9778268096017091</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3625666666666667</v>
+        <v>0.173988</v>
       </c>
       <c r="N5">
-        <v>1.0877</v>
+        <v>0.5219640000000001</v>
       </c>
       <c r="O5">
-        <v>0.112451818732672</v>
+        <v>0.05126562137825639</v>
       </c>
       <c r="P5">
-        <v>0.112451818732672</v>
+        <v>0.05126562137825638</v>
       </c>
       <c r="Q5">
-        <v>0.4246957281000001</v>
+        <v>0.4979791162440001</v>
       </c>
       <c r="R5">
-        <v>3.8222615529</v>
+        <v>4.481812046196001</v>
       </c>
       <c r="S5">
-        <v>0.1065482531106975</v>
+        <v>0.05012889899454961</v>
       </c>
       <c r="T5">
-        <v>0.1065482531106975</v>
+        <v>0.05012889899454961</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.194706</v>
       </c>
       <c r="I6">
-        <v>0.0524986228636186</v>
+        <v>0.02217319039829088</v>
       </c>
       <c r="J6">
-        <v>0.0524986228636186</v>
+        <v>0.02217319039829088</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3839713333333334</v>
+        <v>0.7564453333333333</v>
       </c>
       <c r="N6">
-        <v>1.151914</v>
+        <v>2.269336</v>
       </c>
       <c r="O6">
-        <v>0.1190905804207292</v>
+        <v>0.2228868660598179</v>
       </c>
       <c r="P6">
-        <v>0.1190905804207292</v>
+        <v>0.2228868660598179</v>
       </c>
       <c r="Q6">
-        <v>0.024920507476</v>
+        <v>0.049094815024</v>
       </c>
       <c r="R6">
-        <v>0.224284567284</v>
+        <v>0.441853335216</v>
       </c>
       <c r="S6">
-        <v>0.006252091468117306</v>
+        <v>0.004942112918422701</v>
       </c>
       <c r="T6">
-        <v>0.006252091468117306</v>
+        <v>0.0049421129184227</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.194706</v>
       </c>
       <c r="I7">
-        <v>0.0524986228636186</v>
+        <v>0.02217319039829088</v>
       </c>
       <c r="J7">
-        <v>0.0524986228636186</v>
+        <v>0.02217319039829088</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>5.342209</v>
       </c>
       <c r="O7">
-        <v>0.5523040526800121</v>
+        <v>0.5246945458259835</v>
       </c>
       <c r="P7">
-        <v>0.5523040526800121</v>
+        <v>0.5246945458259834</v>
       </c>
       <c r="Q7">
         <v>0.115573349506</v>
@@ -883,10 +883,10 @@
         <v>1.040160145554</v>
       </c>
       <c r="S7">
-        <v>0.0289952021676961</v>
+        <v>0.01163415206554429</v>
       </c>
       <c r="T7">
-        <v>0.0289952021676961</v>
+        <v>0.01163415206554429</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.194706</v>
       </c>
       <c r="I8">
-        <v>0.0524986228636186</v>
+        <v>0.02217319039829088</v>
       </c>
       <c r="J8">
-        <v>0.0524986228636186</v>
+        <v>0.02217319039829088</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6969213333333334</v>
+        <v>0.6826836666666667</v>
       </c>
       <c r="N8">
-        <v>2.090764</v>
+        <v>2.048051</v>
       </c>
       <c r="O8">
-        <v>0.2161535481665867</v>
+        <v>0.2011529667359422</v>
       </c>
       <c r="P8">
-        <v>0.2161535481665867</v>
+        <v>0.2011529667359422</v>
       </c>
       <c r="Q8">
-        <v>0.04523158837600001</v>
+        <v>0.044307535334</v>
       </c>
       <c r="R8">
-        <v>0.407084295384</v>
+        <v>0.398767818006</v>
       </c>
       <c r="S8">
-        <v>0.01134776360583065</v>
+        <v>0.004460203030617119</v>
       </c>
       <c r="T8">
-        <v>0.01134776360583065</v>
+        <v>0.004460203030617119</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.194706</v>
       </c>
       <c r="I9">
-        <v>0.0524986228636186</v>
+        <v>0.02217319039829088</v>
       </c>
       <c r="J9">
-        <v>0.0524986228636186</v>
+        <v>0.02217319039829088</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3625666666666667</v>
+        <v>0.173988</v>
       </c>
       <c r="N9">
-        <v>1.0877</v>
+        <v>0.5219640000000001</v>
       </c>
       <c r="O9">
-        <v>0.112451818732672</v>
+        <v>0.05126562137825639</v>
       </c>
       <c r="P9">
-        <v>0.112451818732672</v>
+        <v>0.05126562137825638</v>
       </c>
       <c r="Q9">
-        <v>0.0235313018</v>
+        <v>0.011292169176</v>
       </c>
       <c r="R9">
-        <v>0.2117817162</v>
+        <v>0.101629522584</v>
       </c>
       <c r="S9">
-        <v>0.005903565621974551</v>
+        <v>0.00113672238370677</v>
       </c>
       <c r="T9">
-        <v>0.005903565621974551</v>
+        <v>0.00113672238370677</v>
       </c>
     </row>
   </sheetData>
